--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\SimplicityStudio\v5_workspace\ecen5823-assignment5-akash7071\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\SimplicityStudio\v5_workspace\ecen5823-assignment7-akash7071\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDCC02B-A42E-4F07-9756-B033D168CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0387E7F2-FACB-4758-8196-10CC8148C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -34,45 +34,6 @@
     <t>Use this column to denote if BT stack events cause your state machine to advance, you can put an X in the cell to note this. Drawing a bubble diagram of your state machine might also be a good idea 👍.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Commands that may be useful:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">sl_bt_gatt_discover_primary_services_by_uuid()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sl_bt_gatt_discover_characteristics_by_uuid()</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -131,12 +92,6 @@
   </si>
   <si>
     <t>sl_bt_evt_scanner_scan_report_id</t>
-  </si>
-  <si>
-    <t>Received for advertising or scan response packets generated by: sl_bt_scanner_start().
-Is the bd_addr, packet_type and address_type what we expect for our Server? If yes:
-   sl_bt_scanner_stop()
-   sl_bt_connection_open()</t>
   </si>
   <si>
     <t>sl_bt_evt_gatt_procedure_completed_id</t>
@@ -191,19 +146,105 @@
    sl_bt_gatt_send_characteristic_confirmation()</t>
   </si>
   <si>
-    <t>Blue text= event
-Black text=function calls
-Red text=state advances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bubble state diagram </t>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commands that may be useful:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>sl_bt_gatt_discover_primary_services_by_uuid()
+sl_bt_gatt_discover_characteristics_by_uuid()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_discover_characteristics_by_uuid()</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_set_characteristic_notification()</t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_stop()</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_open()</t>
+  </si>
+  <si>
+    <t>Received for advertising or scan response packets generated by: sl_bt_scanner_start().
+Is the bd_addr, packet_type and address_type what we expect for our Server? If yes:
+call the following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sl_bt_gatt_send_characteristic_confirmation()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   displayTempOnLCD()</t>
+  </si>
+  <si>
+    <t>address
+address_type</t>
+  </si>
+  <si>
+    <t>service handle</t>
+  </si>
+  <si>
+    <t>characteristic handle
+indication=1</t>
+  </si>
+  <si>
+    <t>connectionHandle=1
+connection_open=1</t>
+  </si>
+  <si>
+    <t>Discovering</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BDADDR</t>
+  </si>
+  <si>
+    <t>HANDLING INDICATIONS</t>
+  </si>
+  <si>
+    <t>Connected/HANDLING INDICATIONS</t>
+  </si>
+  <si>
+    <t>HANDLING INDICATIONS
+Temp=32C</t>
+  </si>
+  <si>
+    <t>stay in same state until connection close event</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -241,24 +282,30 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -278,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -368,11 +415,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,13 +478,34 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,9 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,23 +604,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>782312</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220673</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>667303</xdr:rowOff>
+      <xdr:rowOff>1287452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>800455</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>755552</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>399050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7D5DD2-6217-C5E1-3F23-A736EE02FED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3D0F8-E700-26EF-105F-E8AED94D79E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -564,8 +642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16145329" y="-598714"/>
-          <a:ext cx="7119967" cy="10305143"/>
+          <a:off x="14319250" y="127000"/>
+          <a:ext cx="7112598" cy="10132002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,16 +1733,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.6328125" style="1" customWidth="1"/>
@@ -1673,17 +1751,17 @@
     <col min="8" max="16384" width="16.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1691,7 +1769,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1703,109 +1781,99 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
-      <c r="Q5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -1813,35 +1881,45 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -1849,19 +1927,21 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -1869,9 +1949,9 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -1879,61 +1959,71 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="E23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="16"/>
@@ -1941,67 +2031,122 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="E25" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="65.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="16"/>
-      <c r="K28" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="F29" s="16"/>
     </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="65.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="Q5:R10"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>